--- a/medicine/Psychotrope/Porte-greffe_(vigne)/Porte-greffe_(vigne).xlsx
+++ b/medicine/Psychotrope/Porte-greffe_(vigne)/Porte-greffe_(vigne).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un porte-greffe de la vigne constitue la partie enterrée du pied de vigne et sert de support au greffon.
 Il est souvent choisi pour être résistant au phylloxéra et adapté au sol où il est planté. Pour cela différents genres de Vitis peuvent êtres utilisés ou croisés entre eux.
@@ -512,15 +524,17 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La vigne Vitis vinifera est cultivée sur le pourtour méditerranéen depuis plusieurs millénaires, franche de pied, c'est-à-dire sans porte-greffe.
-La découverte d'autres variétés de vigne en Amérique (Vitis labrusca, Vitis riparia, Vitis berlandieri, Vitis aestivalis...) ou en Asie, (Vitis amurensis) entraîne des tentatives d'acclimatation en Europe au XIXe siècle ; avec elles arrive le phylloxéra, un insecte radicicole venu d'Amérique, inféodé à la vigne[1],[2]. 
-Il cause de nombreux dégâts, et après de nombreux essais de traitements, aussi coûteux qu'infructueux, la seule solution pour sauver les vignes européennes, découverte par le botaniste Jules Émile Planchon en 1873, s'avère le greffage sur plant américain ou des hybrides franco-américains[2]. 
-Victor Ganzin est le premier à obtenir des hybrides résistants au phylloxéra, à partir d'un croisement réalisé en 1877 entre l'Aramon et le Rupestris Ganzin, variété de V. rupestris venant des États-Unis[3]. Georges Couderc crée plus de 22 000 hybrides provenant de croisements entre espèces américaines ou entre V. vinifera et espèces américaines ; à partir de 1881, ses créations connaissent la célébrité dans les vignobles du monde entier[3].
-Les premières tentatives sur des vignes américaines aboutissent à des succès mitigés selon le sol. Les vignes américaines aiment peu le calcaire et les vignobles de Cognac et Champagne ont beaucoup de difficultés à greffer. Cette solution suscite d'abord une vive hostilité chez les producteurs, notamment chez les Bourguignons qui dénoncent les « américanistes » et préfèrent lutter contre le phylloxera à l'aide du sulfure de carbone, qui s'avère très coûteux[2]. Aujourd'hui, certains porte-greffes sont des hybrides entre les vignes américaines et la vigne européenne, combinant la résistance au phylloxéra des unes à la tolérance au calcaire de l'autre. 
+La découverte d'autres variétés de vigne en Amérique (Vitis labrusca, Vitis riparia, Vitis berlandieri, Vitis aestivalis...) ou en Asie, (Vitis amurensis) entraîne des tentatives d'acclimatation en Europe au XIXe siècle ; avec elles arrive le phylloxéra, un insecte radicicole venu d'Amérique, inféodé à la vigne,. 
+Il cause de nombreux dégâts, et après de nombreux essais de traitements, aussi coûteux qu'infructueux, la seule solution pour sauver les vignes européennes, découverte par le botaniste Jules Émile Planchon en 1873, s'avère le greffage sur plant américain ou des hybrides franco-américains. 
+Victor Ganzin est le premier à obtenir des hybrides résistants au phylloxéra, à partir d'un croisement réalisé en 1877 entre l'Aramon et le Rupestris Ganzin, variété de V. rupestris venant des États-Unis. Georges Couderc crée plus de 22 000 hybrides provenant de croisements entre espèces américaines ou entre V. vinifera et espèces américaines ; à partir de 1881, ses créations connaissent la célébrité dans les vignobles du monde entier.
+Les premières tentatives sur des vignes américaines aboutissent à des succès mitigés selon le sol. Les vignes américaines aiment peu le calcaire et les vignobles de Cognac et Champagne ont beaucoup de difficultés à greffer. Cette solution suscite d'abord une vive hostilité chez les producteurs, notamment chez les Bourguignons qui dénoncent les « américanistes » et préfèrent lutter contre le phylloxera à l'aide du sulfure de carbone, qui s'avère très coûteux. Aujourd'hui, certains porte-greffes sont des hybrides entre les vignes américaines et la vigne européenne, combinant la résistance au phylloxéra des unes à la tolérance au calcaire de l'autre. 
 Il existe de nombreux porte-greffes adaptés à toute sorte de situations géographiques, climatologiques et pédologiques.
-Ainsi, la quasi-totalité des vignes du monde sont greffées sur plants américains ou hybrides[réf. nécessaire], à l'exception de régions où le phylloxéra ne peut se développer, ou de vignes poussant sur un sol sableux[4], comme Tahiti, certaines zones méditerranéennes, et diverses régions dans le monde. Selon l'ingénieur agronome Jean-Paul Legros, « le viticulteur imprudent qui tenterait [aujourd'hui] de planter une vigne sans la greffer verrait bientôt les ceps détruits par une armée de pucerons surgis de nulle part »[1].
+Ainsi, la quasi-totalité des vignes du monde sont greffées sur plants américains ou hybrides[réf. nécessaire], à l'exception de régions où le phylloxéra ne peut se développer, ou de vignes poussant sur un sol sableux, comme Tahiti, certaines zones méditerranéennes, et diverses régions dans le monde. Selon l'ingénieur agronome Jean-Paul Legros, « le viticulteur imprudent qui tenterait [aujourd'hui] de planter une vigne sans la greffer verrait bientôt les ceps détruits par une armée de pucerons surgis de nulle part ».
 </t>
         </is>
       </c>
@@ -551,7 +565,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Qualité des espèces de vitacées
+          <t>Qualité des espèces de vitacées</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 	Les quatre principaux géniteurs de porte-greffe.
 			Vitis riparia
 			Vitis labrusca
@@ -563,8 +583,43 @@
 La résistance au phylloxera est la capacité à circonscrire la tubérosité provoquée par la piqûre de l'insecte ravageur. Les cépages sensibles ont des excroissances nécrosées qui affaiblissent le pied de vigne et peuvent le conduire à la mort.
 La résistance au sel est la capacité à pousser en sol où la richesse en sel est importante. Ces sols généralement en bord de mer, sont prépondérants sur les cordons littoraux et sur certaines îles battues par les embruns. Quelques porte-greffes admettent jusqu'à 1 pour mille là où Vitis vinifera tolère jusqu'à trois pour mille. L'usage de vignes franches de pied (bouture sans porte-greffe) peut se faire en zone sableuse où le phylloxera ne peut se déplacer ou en zone inondable où il est noyé l'hiver par une immersion des parcelles.
 La reprise au bouturage et au greffage est un critère de prix de revient du pied de vigne. Un assemblage greffon-porte-greffe inadéquat demande un grand nombre d'individus greffés à cultiver pour en avoir un petit nombre de réussites. Il existe des incompatibilités reconnues entre un porte-greffe et un cépage : par exemple entre le fercal et le cabernet-sauvignon.
-Croisements
-Liste des principaux porte-greffes utilisés en France en fonction de leur origine[6]. Le signe x signifie "croisement entre" :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Porte-greffe_(vigne)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Psychotrope/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Porte-greffe_(vigne)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Création variétale des porte-greffes</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Croisements</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Liste des principaux porte-greffes utilisés en France en fonction de leur origine. Le signe x signifie "croisement entre" :
  Vitis riparia x Vitis rupestris  : 101-14MG; 3309C
  Vitis riparia x Vitis berlandieri  : 8B; 161-49C; SO4; 5BB; 420A; 5C; RSB1; 125AA; 34EM
  Vitis rupestris x Vitis berlandieri  : 1447P; 99R; 110R; 140Ru; 1103P
@@ -574,8 +629,7 @@
  Vitis riparia x (Vitis vinifera x Vitis rupestris )  : 196-17Cl
  Vitis riparia x (Vitis cordifolia x Vitis Rupestris) : 4453M
  Vitis riparia x Vitis labrusca  : Viala
- 161-49C x 3309C  : Gravesac
-Usage des porte-greffes en France</t>
+ 161-49C x 3309C  : Gravesac</t>
         </is>
       </c>
     </row>
